--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_17.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_17.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_9</t>
+          <t>model_1_17_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9862829715207626</v>
+        <v>0.9144107365832652</v>
       </c>
       <c r="C2" t="n">
-        <v>0.725692802275385</v>
+        <v>0.7416970698961658</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7277244554546235</v>
+        <v>0.6720604822599709</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9508847285667814</v>
+        <v>0.9109532765515002</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05756743414586224</v>
+        <v>0.3591998290878857</v>
       </c>
       <c r="G2" t="n">
-        <v>1.834293494253006</v>
+        <v>1.727272882979969</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9739138353956492</v>
+        <v>1.17302063993031</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1031430154041622</v>
+        <v>0.30001490229534</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3455114705790467</v>
+        <v>1.571888315222849</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2399321448782181</v>
+        <v>0.5993328199655727</v>
       </c>
       <c r="L2" t="n">
-        <v>1.008029480085407</v>
+        <v>0.7065510968569093</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2501465530136941</v>
+        <v>0.6248476589014784</v>
       </c>
       <c r="N2" t="n">
-        <v>135.7095965011592</v>
+        <v>36.04775283673489</v>
       </c>
       <c r="O2" t="n">
-        <v>214.9365251175923</v>
+        <v>56.76864185949429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_8</t>
+          <t>model_1_17_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9861955987682398</v>
+        <v>0.9133625914544432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7256200592241617</v>
+        <v>0.741045663252345</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7271175047738289</v>
+        <v>0.6722017217116738</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9517977567058796</v>
+        <v>0.8998826520429781</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05793411889719993</v>
+        <v>0.3635986699716895</v>
       </c>
       <c r="G3" t="n">
-        <v>1.834779927371488</v>
+        <v>1.73162884220665</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9760848627878291</v>
+        <v>1.172515434601103</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1012256387376505</v>
+        <v>0.3373138864875382</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3377191901599667</v>
+        <v>1.570906285421048</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2406950745179467</v>
+        <v>0.602991434409884</v>
       </c>
       <c r="L3" t="n">
-        <v>1.008080625111274</v>
+        <v>0.7029574564152339</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2509419621476681</v>
+        <v>0.62866202813706</v>
       </c>
       <c r="N3" t="n">
-        <v>135.6968975902406</v>
+        <v>36.02340914925831</v>
       </c>
       <c r="O3" t="n">
-        <v>214.9238262066737</v>
+        <v>56.74429817201771</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_7</t>
+          <t>model_1_17_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9861014761236973</v>
+        <v>0.9122125407359116</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7255427906416836</v>
+        <v>0.7402702299652713</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7264962507932318</v>
+        <v>0.6723642590238588</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9526789766450962</v>
+        <v>0.8881942663058593</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05832913150139005</v>
+        <v>0.3684251868156019</v>
       </c>
       <c r="G4" t="n">
-        <v>1.835296622738308</v>
+        <v>1.736814168167855</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9783070522540496</v>
+        <v>1.171934048059872</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09937505990314996</v>
+        <v>0.3766942226650957</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3299051447241463</v>
+        <v>1.569724642009534</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2415142469946443</v>
+        <v>0.6069803842099034</v>
       </c>
       <c r="L4" t="n">
-        <v>1.008135721293445</v>
+        <v>0.6990144253802684</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2517960084926195</v>
+        <v>0.6328207957883306</v>
       </c>
       <c r="N4" t="n">
-        <v>135.6833072554517</v>
+        <v>35.9970352176349</v>
       </c>
       <c r="O4" t="n">
-        <v>214.9102358718848</v>
+        <v>56.71792424039431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_6</t>
+          <t>model_1_17_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9860004772902979</v>
+        <v>0.9109662969064951</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7254608469467133</v>
+        <v>0.739353230006311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7258603846549381</v>
+        <v>0.6725609538815264</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9535288534372011</v>
+        <v>0.8759130362046699</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05875300199924087</v>
+        <v>0.3736554055680246</v>
       </c>
       <c r="G5" t="n">
-        <v>1.83584458060389</v>
+        <v>1.742946151115818</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9805815085610889</v>
+        <v>1.171230481959018</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09759030228089169</v>
+        <v>0.4180719612969492</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3220682288845842</v>
+        <v>1.568269905104905</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2423901854433072</v>
+        <v>0.6112735930563536</v>
       </c>
       <c r="L5" t="n">
-        <v>1.008194842561777</v>
+        <v>0.6947415893936975</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2527092374544845</v>
+        <v>0.6372967754235417</v>
       </c>
       <c r="N5" t="n">
-        <v>135.6688260588078</v>
+        <v>35.96884256356294</v>
       </c>
       <c r="O5" t="n">
-        <v>214.8957546752409</v>
+        <v>56.68973158632235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_5</t>
+          <t>model_1_17_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9858923621262915</v>
+        <v>0.9096302224490347</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7253741767094686</v>
+        <v>0.7382645746502656</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7252091820966893</v>
+        <v>0.6728048760454415</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9543453775129555</v>
+        <v>0.8630695733115348</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05920673821430569</v>
+        <v>0.379262624249552</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836424144879426</v>
+        <v>1.750225994494491</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9829108223530512</v>
+        <v>1.170357986522114</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09587558600495895</v>
+        <v>0.4613439663275019</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3142135845049643</v>
+        <v>1.5664565197808</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2433243477630335</v>
+        <v>0.6158430191611755</v>
       </c>
       <c r="L6" t="n">
-        <v>1.008258129487049</v>
+        <v>0.6901607626824047</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2536831689981441</v>
+        <v>0.6420607314576618</v>
       </c>
       <c r="N6" t="n">
-        <v>135.6534398447635</v>
+        <v>35.93905274779866</v>
       </c>
       <c r="O6" t="n">
-        <v>214.8803684611965</v>
+        <v>56.65994177055807</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_4</t>
+          <t>model_1_17_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9857770740427532</v>
+        <v>0.9082094727853075</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7252825991143665</v>
+        <v>0.7369417611049589</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7245430798000629</v>
+        <v>0.6731098925582285</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9551285125557147</v>
+        <v>0.8496873489484169</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05969057763819717</v>
+        <v>0.385225206657846</v>
       </c>
       <c r="G7" t="n">
-        <v>1.837036524679549</v>
+        <v>1.759071654762953</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9852934316452533</v>
+        <v>1.169266960141748</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09423098734100392</v>
+        <v>0.5064311585262934</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3063377840768742</v>
+        <v>1.564180509316263</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2443165521167102</v>
+        <v>0.6206651324650403</v>
       </c>
       <c r="L7" t="n">
-        <v>1.008325615194486</v>
+        <v>0.6852896209781971</v>
       </c>
       <c r="M7" t="n">
-        <v>0.254717613545303</v>
+        <v>0.6470881321080229</v>
       </c>
       <c r="N7" t="n">
-        <v>135.6371621990914</v>
+        <v>35.90785432670851</v>
       </c>
       <c r="O7" t="n">
-        <v>214.8640908155245</v>
+        <v>56.62874334946792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_3</t>
+          <t>model_1_17_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9856544024033526</v>
+        <v>0.9067158520701575</v>
       </c>
       <c r="C8" t="n">
-        <v>0.72518601298706</v>
+        <v>0.7352744598177731</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7238620014210704</v>
+        <v>0.6734856312285438</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9558773063455518</v>
+        <v>0.835841495532424</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06020540426653373</v>
+        <v>0.391493613280202</v>
       </c>
       <c r="G8" t="n">
-        <v>1.837682396557585</v>
+        <v>1.770220906147581</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9877296095157162</v>
+        <v>1.16792296470461</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0926585059692024</v>
+        <v>0.5530804028659476</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2984433084574276</v>
+        <v>1.56131103372283</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2453678957535678</v>
+        <v>0.6256945047546781</v>
       </c>
       <c r="L8" t="n">
-        <v>1.008397422983403</v>
+        <v>0.6801686356691115</v>
       </c>
       <c r="M8" t="n">
-        <v>0.255813715057363</v>
+        <v>0.6523316151882665</v>
       </c>
       <c r="N8" t="n">
-        <v>135.6199863176546</v>
+        <v>35.87557215428976</v>
       </c>
       <c r="O8" t="n">
-        <v>214.8469149340876</v>
+        <v>56.59646117704916</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_2</t>
+          <t>model_1_17_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9855242198945512</v>
+        <v>0.9051587028770912</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7250843661575165</v>
+        <v>0.7329538630075643</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7231648917856509</v>
+        <v>0.6739437304030815</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9565908228888055</v>
+        <v>0.821597793951836</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06075175240700074</v>
+        <v>0.398028635334199</v>
       </c>
       <c r="G9" t="n">
-        <v>1.838362109374784</v>
+        <v>1.785738747702813</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9902231302608724</v>
+        <v>1.166284370519405</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09116010749425948</v>
+        <v>0.6010700713515665</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2905329226787006</v>
+        <v>1.557629365227567</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2464787057881486</v>
+        <v>0.6308951064433762</v>
       </c>
       <c r="L9" t="n">
-        <v>1.008473627378799</v>
+        <v>0.6748298384357414</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2569718145748097</v>
+        <v>0.6577536172575821</v>
       </c>
       <c r="N9" t="n">
-        <v>135.6019187019435</v>
+        <v>35.84246265641993</v>
       </c>
       <c r="O9" t="n">
-        <v>214.8288473183765</v>
+        <v>56.56335167917933</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_1</t>
+          <t>model_1_17_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9853862885449407</v>
+        <v>0.9035635609591</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7249774558579316</v>
+        <v>0.7290376648034222</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7224522573763756</v>
+        <v>0.6744846139073717</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9572683404937063</v>
+        <v>0.8071481841461231</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06133062077469183</v>
+        <v>0.4047231047272067</v>
       </c>
       <c r="G10" t="n">
-        <v>1.839077019040385</v>
+        <v>1.811926383126346</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9927721822219325</v>
+        <v>1.164349661586787</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08973730748278265</v>
+        <v>0.6497534827807805</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2826063247313154</v>
+        <v>1.553432614192685</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2476501984144003</v>
+        <v>0.6361785163986652</v>
       </c>
       <c r="L10" t="n">
-        <v>1.00855436768101</v>
+        <v>0.6693607804311998</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2581931800674849</v>
+        <v>0.663261952912834</v>
       </c>
       <c r="N10" t="n">
-        <v>135.5829520750378</v>
+        <v>35.80910427546233</v>
       </c>
       <c r="O10" t="n">
-        <v>214.8098806914708</v>
+        <v>56.52999329822174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_0</t>
+          <t>model_1_17_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.985240503436929</v>
+        <v>0.9005763930038684</v>
       </c>
       <c r="C11" t="n">
-        <v>0.724865223236364</v>
+        <v>0.7215146160334243</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7217237707706075</v>
+        <v>0.6756253208633854</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9579090099535543</v>
+        <v>0.7795570089519674</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06194244968629729</v>
+        <v>0.4172596096127739</v>
       </c>
       <c r="G11" t="n">
-        <v>1.839827519097591</v>
+        <v>1.862233044891777</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9953779365706854</v>
+        <v>1.160269418947115</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0883918892851874</v>
+        <v>0.7427132617542949</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2791038440067239</v>
+        <v>1.544211596066479</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2488824013189709</v>
+        <v>0.6459563527149291</v>
       </c>
       <c r="L11" t="n">
-        <v>1.008639705305212</v>
+        <v>0.6591190617275487</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2594778404007148</v>
+        <v>0.6734560519639927</v>
       </c>
       <c r="N11" t="n">
-        <v>135.5630991117525</v>
+        <v>35.7480933717558</v>
       </c>
       <c r="O11" t="n">
-        <v>214.7900277281856</v>
+        <v>56.46898239451521</v>
       </c>
     </row>
   </sheetData>
